--- a/biology/Botanique/Ophrys_mouche/Ophrys_mouche.xlsx
+++ b/biology/Botanique/Ophrys_mouche/Ophrys_mouche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophrys insectifera
 Ophrys insectifera, l’ophrys mouche, est une espèce de plantes monocotylédones de la famille des Orchidaceae, de la sous-famille des Orchidoideae, originaire d'Europe. C'est une orchidée terrestre, qui doit son nom à l'apparence de sa fleur (qui ressemble à une mouche sombre).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le nom générique, Ophrus, est un terme grec qui signifie sourcil.
 L'épithète spécifique, Insectifera, dérive du latin insecta (insecte) et fero (je porte).</t>
@@ -543,7 +557,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, d'avril à juillet, selon l'altitude.
 </t>
@@ -574,7 +590,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sépales verts avec nervure verte plus foncée.
 Pétales noirs et très courts.
@@ -607,9 +625,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de l'ophrys mouche comprend presque toute l'Europe[1]; en France, elle est absente en Bretagne et en Corse.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de l'ophrys mouche comprend presque toute l'Europe; en France, elle est absente en Bretagne et en Corse.
 Cette espèce se rencontre en pleine lumière ou à mi-ombre, sur sols surtout calcaires, dans les pelouses, les bois clairs.
 </t>
         </is>
@@ -639,89 +659,165 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce Ophrys insectifera a été décrite en premier par Linné et publiée en 1753 dans son Species plantarum, 2: p. 948[2].
-Synonymes
-Selon The Plant List            (17 mai 2021)[3] :
-Arachnites musciflora Schrank[4]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ophrys insectifera a été décrite en premier par Linné et publiée en 1753 dans son Species plantarum, 2: p. 948.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ophrys_mouche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophrys_mouche</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (17 mai 2021) :
+Arachnites musciflora Schrank
 Arachnites musciflorus (Huds.) F.W.Schmidt
 Epipactis myodes (Jacq.) F.W.Schmidt
-Epipactis myodes F.W. Schmidt[4]
+Epipactis myodes F.W. Schmidt
 Malaxis myodes (Jacq.) Bernh.
 Ophrys ambusta F.Picard
 Ophrys insectifera f. apiculata (M.Schulze) Soó
-Ophrys insectifera var. myodes L.[4]
+Ophrys insectifera var. myodes L.
 Ophrys muscaria (Scop.) Lam.
-Ophrys muscifera Huds.[4]
+Ophrys muscifera Huds.
 Ophrys subinsectifera C.E.Hermos. &amp; Sabando
 Orchis insectifera (L.) Crantz
 Orchis muscaria Scop.
-Sous-espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (17 mai 2021)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ophrys_mouche</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophrys_mouche</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 mai 2021) :
 Ophrys insectifera subsp. aymoninii Breistr., Bull. Soc. Bot. France (1981)
 Ophrys insectifera subsp. insectifera
 Ophrys insectifera subsp. subinsectifera (C.E.Hermos. &amp; Sabando) O.Bolòs &amp; Vigo (2001)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ophrys_mouche</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ophrys_mouche</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ophrys_mouche</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophrys_mouche</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure.
 Elle est protégée en France dans les régions Auvergne et Nord-Pas-de-Calais; en Lorraine dans le département 54.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ophrys_mouche</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ophrys_mouche</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ophrys_mouche</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophrys_mouche</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce facile à identifier et peu variable.
 O. insectifera peut toutefois s'hybrider avec l'espèce assez proche Ophrys aymonini, avec Ophrys holoserica, avec Ophrys sphegodes (voir ci-dessous : Ophrys mouche sur Wikimedia commons).
